--- a/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA222"/>
+  <dimension ref="A1:AA223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19149,7 +19152,7 @@
         <v>-3</v>
       </c>
       <c r="F218">
-        <v>-1985</v>
+        <v>-1988</v>
       </c>
       <c r="G218">
         <v>6</v>
@@ -19164,10 +19167,10 @@
         <v>7</v>
       </c>
       <c r="K218">
-        <v>-427</v>
+        <v>-429</v>
       </c>
       <c r="L218">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M218">
         <v>-9</v>
@@ -19191,7 +19194,7 @@
         <v>-5</v>
       </c>
       <c r="T218">
-        <v>-1423</v>
+        <v>-1424</v>
       </c>
       <c r="U218">
         <v>26</v>
@@ -19200,19 +19203,19 @@
         <v>-1</v>
       </c>
       <c r="W218">
-        <v>1813</v>
+        <v>2256</v>
       </c>
       <c r="X218">
-        <v>1716</v>
+        <v>2165</v>
       </c>
       <c r="Y218">
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="Z218">
-        <v>-104</v>
+        <v>-105</v>
       </c>
       <c r="AA218">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -19232,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>-547</v>
+        <v>-565</v>
       </c>
       <c r="G219">
         <v>358</v>
@@ -19247,10 +19250,10 @@
         <v>-1</v>
       </c>
       <c r="K219">
-        <v>-898</v>
+        <v>-902</v>
       </c>
       <c r="L219">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M219">
         <v>346</v>
@@ -19268,34 +19271,34 @@
         <v>-130</v>
       </c>
       <c r="R219">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S219">
         <v>-4</v>
       </c>
       <c r="T219">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="U219">
         <v>3</v>
       </c>
       <c r="V219">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="W219">
-        <v>888</v>
+        <v>6334</v>
       </c>
       <c r="X219">
-        <v>571</v>
+        <v>6014</v>
       </c>
       <c r="Y219">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z219">
         <v>-91</v>
       </c>
       <c r="AA219">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -19303,7 +19306,7 @@
         <v>245</v>
       </c>
       <c r="B220">
-        <v>-972</v>
+        <v>-973</v>
       </c>
       <c r="C220">
         <v>-960</v>
@@ -19312,10 +19315,10 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F220">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="G220">
         <v>-132</v>
@@ -19333,7 +19336,7 @@
         <v>677</v>
       </c>
       <c r="L220">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M220">
         <v>42</v>
@@ -19351,13 +19354,13 @@
         <v>-182</v>
       </c>
       <c r="R220">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="S220">
         <v>-9</v>
       </c>
       <c r="T220">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="U220">
         <v>13</v>
@@ -19366,19 +19369,19 @@
         <v>10</v>
       </c>
       <c r="W220">
-        <v>3278</v>
+        <v>2948</v>
       </c>
       <c r="X220">
-        <v>1589</v>
+        <v>1540</v>
       </c>
       <c r="Y220">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="Z220">
         <v>-134</v>
       </c>
       <c r="AA220">
-        <v>1228</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -19398,7 +19401,7 @@
         <v>-6</v>
       </c>
       <c r="F221">
-        <v>-1706</v>
+        <v>-1707</v>
       </c>
       <c r="G221">
         <v>-248</v>
@@ -19434,7 +19437,7 @@
         <v>-100</v>
       </c>
       <c r="R221">
-        <v>-244</v>
+        <v>-245</v>
       </c>
       <c r="S221">
         <v>-6</v>
@@ -19449,10 +19452,10 @@
         <v>-3</v>
       </c>
       <c r="W221">
-        <v>4979</v>
+        <v>5027</v>
       </c>
       <c r="X221">
-        <v>3679</v>
+        <v>3788</v>
       </c>
       <c r="Y221">
         <v>1407</v>
@@ -19461,7 +19464,7 @@
         <v>-76</v>
       </c>
       <c r="AA221">
-        <v>-31</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="222" spans="1:27">
@@ -19481,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G222">
         <v>-4</v>
@@ -19517,7 +19520,7 @@
         <v>-135</v>
       </c>
       <c r="R222">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S222">
         <v>-1</v>
@@ -19529,22 +19532,105 @@
         <v>6</v>
       </c>
       <c r="V222">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="W222">
-        <v>-572</v>
+        <v>-727</v>
       </c>
       <c r="X222">
-        <v>-344</v>
+        <v>-524</v>
       </c>
       <c r="Y222">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="Z222">
         <v>-111</v>
       </c>
       <c r="AA222">
-        <v>-355</v>
+        <v>-311</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="A223" t="s">
+        <v>248</v>
+      </c>
+      <c r="B223">
+        <v>587</v>
+      </c>
+      <c r="C223">
+        <v>605</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>-18</v>
+      </c>
+      <c r="F223">
+        <v>-1353</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+      <c r="H223">
+        <v>3</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>-1193</v>
+      </c>
+      <c r="L223">
+        <v>100</v>
+      </c>
+      <c r="M223">
+        <v>-55</v>
+      </c>
+      <c r="N223">
+        <v>-581</v>
+      </c>
+      <c r="O223">
+        <v>-657</v>
+      </c>
+      <c r="P223">
+        <v>-258</v>
+      </c>
+      <c r="Q223">
+        <v>-258</v>
+      </c>
+      <c r="R223">
+        <v>96</v>
+      </c>
+      <c r="S223">
+        <v>-4</v>
+      </c>
+      <c r="T223">
+        <v>59</v>
+      </c>
+      <c r="U223">
+        <v>13</v>
+      </c>
+      <c r="V223">
+        <v>28</v>
+      </c>
+      <c r="W223">
+        <v>1263</v>
+      </c>
+      <c r="X223">
+        <v>1188</v>
+      </c>
+      <c r="Y223">
+        <v>562</v>
+      </c>
+      <c r="Z223">
+        <v>-105</v>
+      </c>
+      <c r="AA223">
+        <v>-382</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Serie</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA223"/>
+  <dimension ref="A1:AA224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19633,6 +19636,89 @@
         <v>-382</v>
       </c>
     </row>
+    <row r="224" spans="1:27">
+      <c r="A224" t="s">
+        <v>249</v>
+      </c>
+      <c r="B224">
+        <v>7151</v>
+      </c>
+      <c r="C224">
+        <v>7153</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>-2</v>
+      </c>
+      <c r="F224">
+        <v>53</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>774</v>
+      </c>
+      <c r="L224">
+        <v>22</v>
+      </c>
+      <c r="M224">
+        <v>664</v>
+      </c>
+      <c r="N224">
+        <v>-683</v>
+      </c>
+      <c r="O224">
+        <v>771</v>
+      </c>
+      <c r="P224">
+        <v>-133</v>
+      </c>
+      <c r="Q224">
+        <v>-133</v>
+      </c>
+      <c r="R224">
+        <v>-588</v>
+      </c>
+      <c r="S224">
+        <v>-6</v>
+      </c>
+      <c r="T224">
+        <v>-704</v>
+      </c>
+      <c r="U224">
+        <v>54</v>
+      </c>
+      <c r="V224">
+        <v>69</v>
+      </c>
+      <c r="W224">
+        <v>2731</v>
+      </c>
+      <c r="X224">
+        <v>1773</v>
+      </c>
+      <c r="Y224">
+        <v>1091</v>
+      </c>
+      <c r="Z224">
+        <v>-77</v>
+      </c>
+      <c r="AA224">
+        <v>-56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Serie</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA224"/>
+  <dimension ref="A1:AA225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19719,6 +19722,89 @@
         <v>-56</v>
       </c>
     </row>
+    <row r="225" spans="1:27">
+      <c r="A225" t="s">
+        <v>250</v>
+      </c>
+      <c r="B225">
+        <v>511</v>
+      </c>
+      <c r="C225">
+        <v>512</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>2394</v>
+      </c>
+      <c r="G225">
+        <v>2377</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>2377</v>
+      </c>
+      <c r="K225">
+        <v>-377</v>
+      </c>
+      <c r="L225">
+        <v>80</v>
+      </c>
+      <c r="M225">
+        <v>104</v>
+      </c>
+      <c r="N225">
+        <v>-800</v>
+      </c>
+      <c r="O225">
+        <v>239</v>
+      </c>
+      <c r="P225">
+        <v>-91</v>
+      </c>
+      <c r="Q225">
+        <v>-91</v>
+      </c>
+      <c r="R225">
+        <v>486</v>
+      </c>
+      <c r="S225">
+        <v>-6</v>
+      </c>
+      <c r="T225">
+        <v>157</v>
+      </c>
+      <c r="U225">
+        <v>305</v>
+      </c>
+      <c r="V225">
+        <v>29</v>
+      </c>
+      <c r="W225">
+        <v>2497</v>
+      </c>
+      <c r="X225">
+        <v>1121</v>
+      </c>
+      <c r="Y225">
+        <v>116</v>
+      </c>
+      <c r="Z225">
+        <v>-65</v>
+      </c>
+      <c r="AA225">
+        <v>1325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
+++ b/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Serie</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA225"/>
+  <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19805,6 +19808,89 @@
         <v>1325</v>
       </c>
     </row>
+    <row r="226" spans="1:27">
+      <c r="A226" t="s">
+        <v>251</v>
+      </c>
+      <c r="B226">
+        <v>1563</v>
+      </c>
+      <c r="C226">
+        <v>1571</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>-9</v>
+      </c>
+      <c r="F226">
+        <v>950</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1079</v>
+      </c>
+      <c r="L226">
+        <v>73</v>
+      </c>
+      <c r="M226">
+        <v>394</v>
+      </c>
+      <c r="N226">
+        <v>-501</v>
+      </c>
+      <c r="O226">
+        <v>1113</v>
+      </c>
+      <c r="P226">
+        <v>-203</v>
+      </c>
+      <c r="Q226">
+        <v>-203</v>
+      </c>
+      <c r="R226">
+        <v>75</v>
+      </c>
+      <c r="S226">
+        <v>-7</v>
+      </c>
+      <c r="T226">
+        <v>97</v>
+      </c>
+      <c r="U226">
+        <v>7</v>
+      </c>
+      <c r="V226">
+        <v>-22</v>
+      </c>
+      <c r="W226">
+        <v>3808</v>
+      </c>
+      <c r="X226">
+        <v>-959</v>
+      </c>
+      <c r="Y226">
+        <v>4378</v>
+      </c>
+      <c r="Z226">
+        <v>-62</v>
+      </c>
+      <c r="AA226">
+        <v>451</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
